--- a/PyCoTools/Tests/fitItemTemplate.xlsx
+++ b/PyCoTools/Tests/fitItemTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
   <si>
     <t>StartValue</t>
   </si>
@@ -37,160 +37,91 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>(degradation of PER).Kd</t>
-  </si>
-  <si>
-    <t>(degradation of PER mRNA).Vm</t>
-  </si>
-  <si>
-    <t>(first phosphorylation of PER).K1</t>
-  </si>
-  <si>
-    <t>(removal of the first PER phosphate).V2</t>
-  </si>
-  <si>
-    <t>(transcription of PER).KI</t>
-  </si>
-  <si>
-    <t>(transcription of PER).Vs</t>
-  </si>
-  <si>
-    <t>(removal of the second PER phosphate).V4</t>
-  </si>
-  <si>
-    <t>(second phosphorylation of PER).V3</t>
-  </si>
-  <si>
-    <t>(transcription of PER).n</t>
-  </si>
-  <si>
-    <t>(removal of the second PER phosphate).K4</t>
-  </si>
-  <si>
-    <t>(removal of the first PER phosphate).K2</t>
-  </si>
-  <si>
-    <t>(translocation of PER to the cytoplasm).k2</t>
-  </si>
-  <si>
-    <t>(first phosphorylation of PER).V1</t>
-  </si>
-  <si>
-    <t>(translation of PER).ks</t>
-  </si>
-  <si>
-    <t>(second phosphorylation of PER).K3</t>
-  </si>
-  <si>
-    <t>(translocation of PER to the nucleus).k1</t>
-  </si>
-  <si>
-    <t>(degradation of PER).Vd</t>
-  </si>
-  <si>
-    <t>(degradation of PER mRNA).Km</t>
-  </si>
-  <si>
-    <t>quantity_1</t>
-  </si>
-  <si>
-    <t>monophosphorylated PER</t>
-  </si>
-  <si>
-    <t>total PER</t>
-  </si>
-  <si>
-    <t>PER mRNA</t>
-  </si>
-  <si>
-    <t>nuclear PER</t>
-  </si>
-  <si>
-    <t>EmptySet</t>
-  </si>
-  <si>
-    <t>unphosphorylated PER</t>
-  </si>
-  <si>
-    <t>biphosphorylated PER</t>
-  </si>
-  <si>
-    <t>20813</t>
-  </si>
-  <si>
-    <t>128708</t>
-  </si>
-  <si>
-    <t>1.38621e-006</t>
-  </si>
-  <si>
-    <t>19.8721</t>
-  </si>
-  <si>
-    <t>0.000286224</t>
-  </si>
-  <si>
-    <t>0.00297438</t>
-  </si>
-  <si>
-    <t>0.20815</t>
-  </si>
-  <si>
-    <t>0.0137514</t>
-  </si>
-  <si>
-    <t>0.0145912</t>
-  </si>
-  <si>
-    <t>0.0072364</t>
-  </si>
-  <si>
-    <t>0.000226111</t>
-  </si>
-  <si>
-    <t>6.73469e-005</t>
-  </si>
-  <si>
-    <t>93.0415</t>
-  </si>
-  <si>
-    <t>12.2604</t>
-  </si>
-  <si>
-    <t>354984</t>
-  </si>
-  <si>
-    <t>2.02091</t>
-  </si>
-  <si>
-    <t>0.9005530000000001</t>
-  </si>
-  <si>
-    <t>6646.32</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>93186.6</t>
-  </si>
-  <si>
-    <t>606807.813536</t>
-  </si>
-  <si>
-    <t>128.405</t>
-  </si>
-  <si>
-    <t>513621.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>7.59842e-06</t>
-  </si>
-  <si>
-    <t>0.213529000001</t>
+    <t>pRII</t>
+  </si>
+  <si>
+    <t>kcd</t>
+  </si>
+  <si>
+    <t>ka</t>
+  </si>
+  <si>
+    <t>ligand</t>
+  </si>
+  <si>
+    <t>ki</t>
+  </si>
+  <si>
+    <t>pRI</t>
+  </si>
+  <si>
+    <t>kr</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>klid</t>
+  </si>
+  <si>
+    <t>ligand receptor complex-endosome</t>
+  </si>
+  <si>
+    <t>Receptor 2</t>
+  </si>
+  <si>
+    <t>Receptor 1-endosome</t>
+  </si>
+  <si>
+    <t>Receptor 2 endosome</t>
+  </si>
+  <si>
+    <t>Receptor 1</t>
+  </si>
+  <si>
+    <t>ligand receptor complex-plasma membrane</t>
+  </si>
+  <si>
+    <t>4.20542</t>
+  </si>
+  <si>
+    <t>0.0251133</t>
+  </si>
+  <si>
+    <t>0.779862</t>
+  </si>
+  <si>
+    <t>0.0001</t>
+  </si>
+  <si>
+    <t>0.390589</t>
+  </si>
+  <si>
+    <t>6.44406</t>
+  </si>
+  <si>
+    <t>0.0308656</t>
+  </si>
+  <si>
+    <t>1.04518</t>
+  </si>
+  <si>
+    <t>0.268159</t>
+  </si>
+  <si>
+    <t>38.8192950147</t>
+  </si>
+  <si>
+    <t>0.00155182</t>
+  </si>
+  <si>
+    <t>7.62219</t>
+  </si>
+  <si>
+    <t>0.385859</t>
+  </si>
+  <si>
+    <t>22.9544</t>
   </si>
   <si>
     <t>1e-06</t>
@@ -205,94 +136,55 @@
     <t>reactions</t>
   </si>
   <si>
-    <t>assignment</t>
-  </si>
-  <si>
-    <t>ReactionParameter</t>
-  </si>
-  <si>
     <t>ModelValue</t>
   </si>
   <si>
     <t>Species</t>
   </si>
   <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[degradation of PER],ParameterGroup=Parameters,Parameter=Kd</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[degradation of PER mRNA],ParameterGroup=Parameters,Parameter=Vm</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[first phosphorylation of PER],ParameterGroup=Parameters,Parameter=K1</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[removal of the first PER phosphate],ParameterGroup=Parameters,Parameter=V2</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[transcription of PER],ParameterGroup=Parameters,Parameter=KI</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[transcription of PER],ParameterGroup=Parameters,Parameter=Vs</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[removal of the second PER phosphate],ParameterGroup=Parameters,Parameter=V4</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[second phosphorylation of PER],ParameterGroup=Parameters,Parameter=V3</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[transcription of PER],ParameterGroup=Parameters,Parameter=n</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[removal of the second PER phosphate],ParameterGroup=Parameters,Parameter=K4</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[removal of the first PER phosphate],ParameterGroup=Parameters,Parameter=K2</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[translocation of PER to the cytoplasm],ParameterGroup=Parameters,Parameter=k2</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[first phosphorylation of PER],ParameterGroup=Parameters,Parameter=V1</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[translation of PER],ParameterGroup=Parameters,Parameter=ks</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[second phosphorylation of PER],ParameterGroup=Parameters,Parameter=K3</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[translocation of PER to the nucleus],ParameterGroup=Parameters,Parameter=k1</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[degradation of PER],ParameterGroup=Parameters,Parameter=Vd</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Reactions[degradation of PER mRNA],ParameterGroup=Parameters,Parameter=Km</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Values[quantity_1]</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Compartments[CYTOPLASM],Vector=Metabolites[monophosphorylated PER]</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Compartments[CYTOPLASM],Vector=Metabolites[total PER]</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Compartments[CYTOPLASM],Vector=Metabolites[PER mRNA]</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Compartments[NUCLEUS],Vector=Metabolites[nuclear PER]</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Compartments[default],Vector=Metabolites[EmptySet]</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Compartments[CYTOPLASM],Vector=Metabolites[unphosphorylated PER]</t>
-  </si>
-  <si>
-    <t>CN=Root,Model=Goldbeter1995_CircClock,Vector=Compartments[CYTOPLASM],Vector=Metabolites[biphosphorylated PER]</t>
+    <t>CN=Root,Model=Vilar2006_TGFbeta,Vector=Values[pRII]</t>
+  </si>
+  <si>
+    <t>CN=Root,Model=Vilar2006_TGFbeta,Vector=Values[kcd]</t>
+  </si>
+  <si>
+    <t>CN=Root,Model=Vilar2006_TGFbeta,Vector=Values[ka]</t>
+  </si>
+  <si>
+    <t>CN=Root,Model=Vilar2006_TGFbeta,Vector=Values[ligand]</t>
+  </si>
+  <si>
+    <t>CN=Root,Model=Vilar2006_TGFbeta,Vector=Values[ki]</t>
+  </si>
+  <si>
+    <t>CN=Root,Model=Vilar2006_TGFbeta,Vector=Values[pRI]</t>
+  </si>
+  <si>
+    <t>CN=Root,Model=Vilar2006_TGFbeta,Vector=Values[kr]</t>
+  </si>
+  <si>
+    <t>CN=Root,Model=Vilar2006_TGFbeta,Vector=Values[alpha]</t>
+  </si>
+  <si>
+    <t>CN=Root,Model=Vilar2006_TGFbeta,Vector=Values[klid]</t>
+  </si>
+  <si>
+    <t>CN=Root,Model=Vilar2006_TGFbeta,Vector=Compartments[Endosome],Vector=Metabolites[ligand receptor complex-endosome]</t>
+  </si>
+  <si>
+    <t>CN=Root,Model=Vilar2006_TGFbeta,Vector=Compartments[Plasma membrane],Vector=Metabolites[Receptor 2]</t>
+  </si>
+  <si>
+    <t>CN=Root,Model=Vilar2006_TGFbeta,Vector=Compartments[Endosome],Vector=Metabolites[Receptor 1-endosome]</t>
+  </si>
+  <si>
+    <t>CN=Root,Model=Vilar2006_TGFbeta,Vector=Compartments[Endosome],Vector=Metabolites[Receptor 2 endosome]</t>
+  </si>
+  <si>
+    <t>CN=Root,Model=Vilar2006_TGFbeta,Vector=Compartments[Plasma membrane],Vector=Metabolites[Receptor 1]</t>
+  </si>
+  <si>
+    <t>CN=Root,Model=Vilar2006_TGFbeta,Vector=Compartments[Plasma membrane],Vector=Metabolites[ligand receptor complex-plasma membrane]</t>
   </si>
 </sst>
 </file>
@@ -650,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -684,22 +576,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -707,22 +599,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -730,22 +622,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -753,22 +645,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -776,22 +668,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -799,22 +691,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -822,22 +714,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -845,22 +737,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -868,22 +760,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -891,22 +783,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -914,22 +806,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -937,22 +829,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -960,22 +852,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -983,22 +875,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1006,275 +898,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
         <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
